--- a/Arduino-Bluetooth/docs 2nd Approach/chauvenet_result_iteration.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/chauvenet_result_iteration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Iteration - 4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration - 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration - 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,19 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2128150541698156</v>
+        <v>0.2225284506110743</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06439244131646775</v>
+        <v>-0.01523612079177302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08562591763446578</v>
+        <v>0.03247825077474167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07383083611434649</v>
+        <v>0.03859681228091425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07593892505110275</v>
+        <v>0.004026113512708367</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.004998000895654252</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.006053141156931599</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.772763333624019</v>
+        <v>1.666541573859614</v>
       </c>
       <c r="C3" t="n">
-        <v>1.917009614867874</v>
+        <v>0.4868097093947357</v>
       </c>
       <c r="D3" t="n">
-        <v>1.082946740282918</v>
+        <v>0.2279358809685001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9647785109056531</v>
+        <v>0.1898772759621833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9610204947651588</v>
+        <v>0.1235793968233901</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1098257311943792</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1004375325099085</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino-Bluetooth/docs 2nd Approach/chauvenet_result_iteration.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/chauvenet_result_iteration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,21 +454,6 @@
           <t>Iteration - 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration - 4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration - 5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration - 6</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -477,25 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2225284506110743</v>
+        <v>0.3219628369866471</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01523612079177302</v>
+        <v>0.08865399731597659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03247825077474167</v>
+        <v>0.1300418914669286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03859681228091425</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004026113512708367</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.004998000895654252</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.006053141156931599</v>
+        <v>0.0761832673032932</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.666541573859614</v>
+        <v>1.67523729445211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4868097093947357</v>
+        <v>0.5623973134614036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2279358809685001</v>
+        <v>0.3392036008128436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1898772759621833</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1235793968233901</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1098257311943792</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1004375325099085</v>
+        <v>0.2144067895675702</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +503,13 @@
         <v>386</v>
       </c>
       <c r="C4" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>403</v>
       </c>
       <c r="E4" t="n">
-        <v>440</v>
-      </c>
-      <c r="F4" t="n">
-        <v>122</v>
-      </c>
-      <c r="G4" t="n">
-        <v>152</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
